--- a/params_generaux.xlsx
+++ b/params_generaux.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcvou\Dropbox\AA-Perso\Anaconda-Python38-spyder\noyau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcvou\Dropbox\AA-Perso\Anaconda-Python38-spyder\memolab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2C68B-AE89-40C7-89D2-89CD62EE40E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC278F8-84A3-4325-8A94-AC33CE59F967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4944" yWindow="672" windowWidth="17604" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>NumPos</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>cheminUsers</t>
-  </si>
-  <si>
     <t>path fichiers users</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>Attention ! Valeurs booléennes (en français ici).</t>
+  </si>
+  <si>
+    <t>path fichier messages.xlsx</t>
+  </si>
+  <si>
+    <t>cheminMessages</t>
+  </si>
+  <si>
+    <t>cheminUtilisateurs</t>
   </si>
 </sst>
 </file>
@@ -442,17 +448,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,21 +477,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>44257</v>
@@ -493,16 +499,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>44250</v>
@@ -510,27 +516,37 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>44254</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -551,7 +567,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -630,6 +646,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
